--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H2">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I2">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J2">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>1049.917670261944</v>
+        <v>457.9442805005444</v>
       </c>
       <c r="R2">
-        <v>9449.259032357499</v>
+        <v>4121.498524504899</v>
       </c>
       <c r="S2">
-        <v>0.3708111391425832</v>
+        <v>0.2189574436504154</v>
       </c>
       <c r="T2">
-        <v>0.4043195752647715</v>
+        <v>0.2499722438080022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H3">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I3">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J3">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>171.492590897</v>
+        <v>109.95409171054</v>
       </c>
       <c r="R3">
-        <v>1543.433318073</v>
+        <v>989.5868253948599</v>
       </c>
       <c r="S3">
-        <v>0.06056795193204446</v>
+        <v>0.05257248068155433</v>
       </c>
       <c r="T3">
-        <v>0.06604118920603665</v>
+        <v>0.06001924729950168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H4">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I4">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J4">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>227.33974420375</v>
+        <v>180.54636439763</v>
       </c>
       <c r="R4">
-        <v>2046.05769783375</v>
+        <v>1624.91727957867</v>
       </c>
       <c r="S4">
-        <v>0.08029211423743725</v>
+        <v>0.0863248480048097</v>
       </c>
       <c r="T4">
-        <v>0.08754773009423621</v>
+        <v>0.09855255702838531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H5">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I5">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J5">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>435.3951742226667</v>
+        <v>283.08711343374</v>
       </c>
       <c r="R5">
-        <v>2612.371045336</v>
+        <v>1698.52268060244</v>
       </c>
       <c r="S5">
-        <v>0.1537733720496489</v>
+        <v>0.1353527783338113</v>
       </c>
       <c r="T5">
-        <v>0.1117794260764083</v>
+        <v>0.1030167845759397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.74341666666666</v>
+        <v>12.01751833333333</v>
       </c>
       <c r="H6">
-        <v>56.23025</v>
+        <v>36.052555</v>
       </c>
       <c r="I6">
-        <v>0.759296164886796</v>
+        <v>0.5714697501126412</v>
       </c>
       <c r="J6">
-        <v>0.7720204290278171</v>
+        <v>0.6009086862203552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>265.7321469699166</v>
+        <v>163.6835268825167</v>
       </c>
       <c r="R6">
-        <v>2391.58932272925</v>
+        <v>1473.15174194265</v>
       </c>
       <c r="S6">
-        <v>0.09385158752508209</v>
+        <v>0.07826219944205046</v>
       </c>
       <c r="T6">
-        <v>0.1023325083863644</v>
+        <v>0.08934785350852636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.972651</v>
       </c>
       <c r="I7">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J7">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>36.83286384392556</v>
+        <v>25.05687163846444</v>
       </c>
       <c r="R7">
-        <v>331.49577459533</v>
+        <v>225.51184474618</v>
       </c>
       <c r="S7">
-        <v>0.01300867352431754</v>
+        <v>0.01198047184657053</v>
       </c>
       <c r="T7">
-        <v>0.01418420537816614</v>
+        <v>0.0136774771363666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.972651</v>
       </c>
       <c r="I8">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J8">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>6.016246254027999</v>
       </c>
       <c r="R8">
-        <v>54.146216286252</v>
+        <v>54.14621628625201</v>
       </c>
       <c r="S8">
-        <v>0.002124824821989934</v>
+        <v>0.002876554978945288</v>
       </c>
       <c r="T8">
-        <v>0.002316835118614578</v>
+        <v>0.003284012137409105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.972651</v>
       </c>
       <c r="I9">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J9">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>7.975457582765</v>
+        <v>9.878771872766</v>
       </c>
       <c r="R9">
-        <v>71.779118244885</v>
+        <v>88.90894685489401</v>
       </c>
       <c r="S9">
-        <v>0.002816781348875292</v>
+        <v>0.00472334894826555</v>
       </c>
       <c r="T9">
-        <v>0.003071320460394986</v>
+        <v>0.005392400071911723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.972651</v>
       </c>
       <c r="I10">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J10">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>15.27438924467734</v>
+        <v>15.489389792268</v>
       </c>
       <c r="R10">
-        <v>91.64633546806401</v>
+        <v>92.93633875360801</v>
       </c>
       <c r="S10">
-        <v>0.005394626489249327</v>
+        <v>0.007405960369049327</v>
       </c>
       <c r="T10">
-        <v>0.003921408790269526</v>
+        <v>0.00563666467218515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.972651</v>
       </c>
       <c r="I11">
-        <v>0.02663737648258906</v>
+        <v>0.03126852934637925</v>
       </c>
       <c r="J11">
-        <v>0.02708376490131473</v>
+        <v>0.03287930968502149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>9.322327136236334</v>
+        <v>8.956105135636667</v>
       </c>
       <c r="R11">
-        <v>83.900944226127</v>
+        <v>80.60494622073001</v>
       </c>
       <c r="S11">
-        <v>0.003292470298156966</v>
+        <v>0.00428219320354855</v>
       </c>
       <c r="T11">
-        <v>0.003589995153869493</v>
+        <v>0.004888755667148918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H12">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I12">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J12">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>99.70803269581666</v>
+        <v>115.2819634318289</v>
       </c>
       <c r="R12">
-        <v>897.37229426235</v>
+        <v>1037.53767088646</v>
       </c>
       <c r="S12">
-        <v>0.03521499850209907</v>
+        <v>0.05511990232620432</v>
       </c>
       <c r="T12">
-        <v>0.03839721015458347</v>
+        <v>0.06292750515007703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H13">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I13">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J13">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>16.28621876226</v>
+        <v>27.67961981291599</v>
       </c>
       <c r="R13">
-        <v>146.57596886034</v>
+        <v>249.116578316244</v>
       </c>
       <c r="S13">
-        <v>0.005751985610502433</v>
+        <v>0.01323448955149528</v>
       </c>
       <c r="T13">
-        <v>0.006271765148007522</v>
+        <v>0.01510912346109937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H14">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I14">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J14">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>21.589882035675</v>
+        <v>45.45037521920199</v>
       </c>
       <c r="R14">
-        <v>194.308938321075</v>
+        <v>409.053376972818</v>
       </c>
       <c r="S14">
-        <v>0.007625139549851827</v>
+        <v>0.02173124197570763</v>
       </c>
       <c r="T14">
-        <v>0.008314187085262393</v>
+        <v>0.02480942061999623</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H15">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I15">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J15">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>41.34838139848</v>
+        <v>71.263775198196</v>
       </c>
       <c r="R15">
-        <v>248.09028839088</v>
+        <v>427.582651189176</v>
       </c>
       <c r="S15">
-        <v>0.01460346924559054</v>
+        <v>0.03407343361777464</v>
       </c>
       <c r="T15">
-        <v>0.010615410127506</v>
+        <v>0.02593323619931958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.780015</v>
+        <v>3.025265666666666</v>
       </c>
       <c r="H16">
-        <v>5.340045</v>
+        <v>9.075797</v>
       </c>
       <c r="I16">
-        <v>0.07210844143184338</v>
+        <v>0.1438606346668928</v>
       </c>
       <c r="J16">
-        <v>0.07331683269997644</v>
+        <v>0.1512715326742485</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>25.235911680385</v>
+        <v>41.20535873892334</v>
       </c>
       <c r="R16">
-        <v>227.123205123465</v>
+        <v>370.84822865031</v>
       </c>
       <c r="S16">
-        <v>0.008912848523799505</v>
+        <v>0.0197015671957109</v>
       </c>
       <c r="T16">
-        <v>0.009718260184617055</v>
+        <v>0.02249224724375632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H17">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I17">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J17">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>68.37056624103333</v>
+        <v>117.7753155561533</v>
       </c>
       <c r="R17">
-        <v>410.2233974462</v>
+        <v>706.6518933369199</v>
       </c>
       <c r="S17">
-        <v>0.02414719579425289</v>
+        <v>0.05631205174373977</v>
       </c>
       <c r="T17">
-        <v>0.01755284189492034</v>
+        <v>0.04285901312795507</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H18">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I18">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J18">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>11.16758568588</v>
+        <v>28.278282750348</v>
       </c>
       <c r="R18">
-        <v>67.00551411527999</v>
+        <v>169.669696502088</v>
       </c>
       <c r="S18">
-        <v>0.003944180850504604</v>
+        <v>0.01352072897399682</v>
       </c>
       <c r="T18">
-        <v>0.002867065122748419</v>
+        <v>0.01029060534382808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H19">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I19">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J19">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>14.80434845565</v>
+        <v>46.433389267806</v>
       </c>
       <c r="R19">
-        <v>88.8260907339</v>
+        <v>278.600335606836</v>
       </c>
       <c r="S19">
-        <v>0.005228616938825034</v>
+        <v>0.022201251652255</v>
       </c>
       <c r="T19">
-        <v>0.00380073476184516</v>
+        <v>0.01689733736485303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H20">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I20">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J20">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>28.35290370224</v>
+        <v>72.805089034188</v>
       </c>
       <c r="R20">
-        <v>113.41161480896</v>
+        <v>291.220356136752</v>
       </c>
       <c r="S20">
-        <v>0.01001371137720213</v>
+        <v>0.03481038383587312</v>
       </c>
       <c r="T20">
-        <v>0.004852712342060785</v>
+        <v>0.01766275189309069</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.22057</v>
+        <v>3.090697</v>
       </c>
       <c r="H21">
-        <v>2.44114</v>
+        <v>6.181394</v>
       </c>
       <c r="I21">
-        <v>0.04944531386447028</v>
+        <v>0.146972094676554</v>
       </c>
       <c r="J21">
-        <v>0.03351594471155589</v>
+        <v>0.1030288518400537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>17.30445907463</v>
+        <v>42.09656032577001</v>
       </c>
       <c r="R21">
-        <v>103.82675444778</v>
+        <v>252.57936195462</v>
       </c>
       <c r="S21">
-        <v>0.00611160890368562</v>
+        <v>0.02012767847068928</v>
       </c>
       <c r="T21">
-        <v>0.004442590589981185</v>
+        <v>0.01531914411032682</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H22">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I22">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J22">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N22">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O22">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P22">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q22">
-        <v>127.9220499801489</v>
+        <v>85.28631268539776</v>
       </c>
       <c r="R22">
-        <v>1151.29844982134</v>
+        <v>767.5768141685799</v>
       </c>
       <c r="S22">
-        <v>0.04517965781332066</v>
+        <v>0.04077804614909366</v>
       </c>
       <c r="T22">
-        <v>0.04926232825671815</v>
+        <v>0.04655415921949575</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H23">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I23">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J23">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P23">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q23">
-        <v>20.894670511144</v>
+        <v>20.477554685068</v>
       </c>
       <c r="R23">
-        <v>188.052034600296</v>
+        <v>184.297992165612</v>
       </c>
       <c r="S23">
-        <v>0.007379603938195651</v>
+        <v>0.009790957583645912</v>
       </c>
       <c r="T23">
-        <v>0.008046463590097844</v>
+        <v>0.01117782339531027</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H24">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I24">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J24">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N24">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O24">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P24">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q24">
-        <v>27.69909198047</v>
+        <v>33.624469927646</v>
       </c>
       <c r="R24">
-        <v>249.29182782423</v>
+        <v>302.620229348814</v>
       </c>
       <c r="S24">
-        <v>0.009782797395847928</v>
+        <v>0.01607690780941828</v>
       </c>
       <c r="T24">
-        <v>0.01066682219184801</v>
+        <v>0.01835416349229494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H25">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I25">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J25">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N25">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O25">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P25">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q25">
-        <v>53.04858163224534</v>
+        <v>52.721383586508</v>
       </c>
       <c r="R25">
-        <v>318.2914897934721</v>
+        <v>316.328301519048</v>
       </c>
       <c r="S25">
-        <v>0.01873575951916638</v>
+        <v>0.02520773785666057</v>
       </c>
       <c r="T25">
-        <v>0.0136192139005825</v>
+        <v>0.01918556923908871</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.283699333333333</v>
+        <v>2.238110333333333</v>
       </c>
       <c r="H26">
-        <v>6.851098</v>
+        <v>6.714331</v>
       </c>
       <c r="I26">
-        <v>0.09251270333430135</v>
+        <v>0.1064289911975326</v>
       </c>
       <c r="J26">
-        <v>0.09406302865933586</v>
+        <v>0.1119116195803211</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N26">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O26">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P26">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q26">
-        <v>32.37682529672733</v>
+        <v>30.48398036523667</v>
       </c>
       <c r="R26">
-        <v>291.391427670546</v>
+        <v>274.35582328713</v>
       </c>
       <c r="S26">
-        <v>0.01143488466777073</v>
+        <v>0.01457534179871418</v>
       </c>
       <c r="T26">
-        <v>0.01246820072008935</v>
+        <v>0.01663990423413146</v>
       </c>
     </row>
   </sheetData>
